--- a/uploads/produk.xlsx
+++ b/uploads/produk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEC7181-F963-46D0-A867-9FF2C1967B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B826DFD-9C67-4715-A12F-179286F0C454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD937E07-14DD-43B3-925D-E9DFEA15F139}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>harga</t>
   </si>
@@ -33,108 +33,6 @@
     <t>qty</t>
   </si>
   <si>
-    <t>Castrol Magnetic</t>
-  </si>
-  <si>
-    <t>Oli Mesin</t>
-  </si>
-  <si>
-    <t>Lucas Semi-Synthetic</t>
-  </si>
-  <si>
-    <t>OM003</t>
-  </si>
-  <si>
-    <t>OM002</t>
-  </si>
-  <si>
-    <t>Duration Ultra Iridium</t>
-  </si>
-  <si>
-    <t>B001</t>
-  </si>
-  <si>
-    <t>Busi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACDelco 41-993 Professional </t>
-  </si>
-  <si>
-    <t>B002</t>
-  </si>
-  <si>
-    <t>Ak001</t>
-  </si>
-  <si>
-    <t>GS Astra</t>
-  </si>
-  <si>
-    <t>Aki</t>
-  </si>
-  <si>
-    <t>Ak002</t>
-  </si>
-  <si>
-    <t>Boch SM Mega Power</t>
-  </si>
-  <si>
-    <t>Ak003</t>
-  </si>
-  <si>
-    <t>Amarin Hi Life</t>
-  </si>
-  <si>
-    <t>KR001</t>
-  </si>
-  <si>
-    <t>Akebono Brake</t>
-  </si>
-  <si>
-    <t>Kampas Rem</t>
-  </si>
-  <si>
-    <t>Birkens</t>
-  </si>
-  <si>
-    <t>KR002</t>
-  </si>
-  <si>
-    <t>KR003</t>
-  </si>
-  <si>
-    <t>Bendix</t>
-  </si>
-  <si>
-    <t>K&amp;N</t>
-  </si>
-  <si>
-    <t>Filter Udara</t>
-  </si>
-  <si>
-    <t>Ferrox</t>
-  </si>
-  <si>
-    <t>FU001</t>
-  </si>
-  <si>
-    <t>FU002</t>
-  </si>
-  <si>
-    <t>Ba001</t>
-  </si>
-  <si>
-    <t>Accelera</t>
-  </si>
-  <si>
-    <t>Ban</t>
-  </si>
-  <si>
-    <t>Bridgestone</t>
-  </si>
-  <si>
-    <t>Ba002</t>
-  </si>
-  <si>
     <t>id_produk</t>
   </si>
   <si>
@@ -144,10 +42,10 @@
     <t>jenis_barang</t>
   </si>
   <si>
-    <t>Yuasa</t>
-  </si>
-  <si>
-    <t>Ak004</t>
+    <t>oli1</t>
+  </si>
+  <si>
+    <t>oli</t>
   </si>
 </sst>
 </file>
@@ -535,7 +433,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,13 +446,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -564,259 +462,119 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>570000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>360000</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>700000</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>380000</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>95000</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>620000</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>700000</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>600000</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>250000</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>230000</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>350000</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1300000</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1300000</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>400000</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>550000</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
